--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_12_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_12_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32960.39988041277</v>
+        <v>6559119.576202142</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32960.39988041277</v>
+        <v>6559119.576202142</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>42426.21594161031</v>
+        <v>3702017.067999247</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>42426.21594161031</v>
+        <v>3702017.067999247</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1610265043.813428</v>
+        <v>62568806.12042928</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14063.30958559656</v>
+        <v>1474305.956133864</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>27209.37684156984</v>
+        <v>2796651.848483087</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>40355.44409754309</v>
+        <v>4118997.740832313</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>55349.78646604393</v>
+        <v>5287630.170396524</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>70323.14183895316</v>
+        <v>6458680.633546649</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>85296.49721186238</v>
+        <v>7629731.096696766</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>100383.4883772819</v>
+        <v>8893619.877137324</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>115364.9959063379</v>
+        <v>10136517.41394152</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>130230.983576657</v>
+        <v>11265307.54117117</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>143855.6812970177</v>
+        <v>12550312.35188485</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>157480.3790173783</v>
+        <v>13835317.16259852</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>171105.076737739</v>
+        <v>15120321.97331219</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>184729.7744580997</v>
+        <v>16405326.78402588</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>199722.6275829642</v>
+        <v>17559363.13671009</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>216214.673132268</v>
+        <v>18407149.61016028</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>216</v>
@@ -27052,13 +27052,13 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>215</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>825</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>222</v>
